--- a/development/Orchestration/assets/Orchestration-1.2.0-XFZB-4.0.0-mapping.xlsx
+++ b/development/Orchestration/assets/Orchestration-1.2.0-XFZB-4.0.0-mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iataonline-my.sharepoint.com/personal/lambertc_iata_org/Documents/ONE Record/31 CXML mapping/Release 3.2.0 docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iataonline-my.sharepoint.com/personal/lambertc_iata_org/Documents/ONE Record/31 CXML mapping/Ochestration 1.2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="8_{50F9FA9C-BD42-4B39-9627-8AF2541E7D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A59464EA-3AC0-4F85-B255-CBF09EF4A3B2}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{50F9FA9C-BD42-4B39-9627-8AF2541E7D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CA38FB0-EC7F-4499-B043-6B87FD87B605}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{409C4CA4-810D-446E-B907-D73C99948B9B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="495">
   <si>
     <t>XFZB Message</t>
   </si>
@@ -1241,9 +1241,6 @@
     <t>Waybill#shipment -&gt; Shipment#goodsDescription</t>
   </si>
   <si>
-    <t>Waybill#waybillLineItems -&gt; WaybillLineItem#pieceReferences -&gt; Piece#volumetricWeigh -&gt; VolumetricWeight#conversionFactor</t>
-  </si>
-  <si>
     <t>Mapping remark</t>
   </si>
   <si>
@@ -1481,9 +1478,6 @@
     <t>ULD#tareWeight</t>
   </si>
   <si>
-    <t>ULD#slac</t>
-  </si>
-  <si>
     <t>ULD#uldTypeCode</t>
   </si>
   <si>
@@ -1521,6 +1515,15 @@
   </si>
   <si>
     <t>WaybillLineItem#rcp</t>
+  </si>
+  <si>
+    <t>ULD#inUnitComposition</t>
+  </si>
+  <si>
+    <t>UnitComposition#slac</t>
+  </si>
+  <si>
+    <t>WaybillLineItem#conversionFactor</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1609,13 +1612,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1636,8 +1648,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
@@ -1648,6 +1658,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1966,9 +1977,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1D5207-AAE4-40A7-897B-0A14B8C76F5C}">
   <dimension ref="A1:W362"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P318" sqref="P318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,15 +2014,15 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2024,133 +2035,133 @@
       <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>401</v>
+      <c r="L2" s="10" t="s">
+        <v>400</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="13"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="13"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="13" t="s">
-        <v>402</v>
+      <c r="L5" s="11" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>402</v>
+      <c r="L6" s="11" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="13" t="s">
-        <v>402</v>
+      <c r="L7" s="11" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="13" t="s">
-        <v>402</v>
+      <c r="L8" s="11" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="13" t="s">
-        <v>402</v>
+      <c r="L9" s="11" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="13" t="s">
-        <v>402</v>
+      <c r="L10" s="11" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="13" t="s">
-        <v>402</v>
+      <c r="L11" s="11" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="13"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="13" t="s">
-        <v>403</v>
+      <c r="L13" s="11" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="13"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="13"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="13" t="s">
-        <v>404</v>
+      <c r="L16" s="11" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="13"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="13"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="13"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
@@ -2168,8 +2179,8 @@
       <c r="K20" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="13" t="s">
-        <v>406</v>
+      <c r="L20" s="11" t="s">
+        <v>405</v>
       </c>
       <c r="M20" t="s">
         <v>27</v>
@@ -2179,7 +2190,7 @@
       <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="13"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
@@ -2194,7 +2205,7 @@
       <c r="J22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L22" s="13"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
@@ -2209,19 +2220,19 @@
       <c r="J23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L23" s="13"/>
+      <c r="L23" s="11"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L24" s="13"/>
+      <c r="L24" s="11"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="13"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
@@ -2236,7 +2247,7 @@
       <c r="J26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="13"/>
+      <c r="L26" s="11"/>
       <c r="M26" t="s">
         <v>39</v>
       </c>
@@ -2245,13 +2256,13 @@
       <c r="C27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="13"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L28" s="13"/>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
@@ -2266,7 +2277,7 @@
       <c r="J29" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="13"/>
+      <c r="L29" s="11"/>
       <c r="M29" t="s">
         <v>44</v>
       </c>
@@ -2284,7 +2295,7 @@
       <c r="J30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L30" s="13"/>
+      <c r="L30" s="11"/>
       <c r="M30" t="s">
         <v>46</v>
       </c>
@@ -2293,7 +2304,7 @@
       <c r="D31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L31" s="13"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
@@ -2308,7 +2319,7 @@
       <c r="J32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L32" s="13"/>
+      <c r="L32" s="11"/>
       <c r="M32" t="s">
         <v>49</v>
       </c>
@@ -2317,26 +2328,26 @@
       <c r="D33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L33" s="13"/>
+      <c r="L33" s="11"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="L34" s="13"/>
+      <c r="L34" s="11"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L35" s="13"/>
+      <c r="L35" s="11"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L36" s="13"/>
+      <c r="L36" s="11"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
@@ -2351,14 +2362,14 @@
       <c r="J37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L37" s="13" t="s">
+      <c r="L37" s="11" t="s">
         <v>57</v>
       </c>
       <c r="M37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
@@ -2374,21 +2385,21 @@
       <c r="J38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L38" s="13" t="s">
+      <c r="L38" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="M38" t="s">
         <v>410</v>
       </c>
-      <c r="M38" t="s">
-        <v>411</v>
-      </c>
       <c r="N38" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L39" s="13"/>
+      <c r="L39" s="11"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
@@ -2403,7 +2414,7 @@
       <c r="J40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L40" s="13" t="s">
+      <c r="L40" s="11" t="s">
         <v>64</v>
       </c>
       <c r="M40" t="s">
@@ -2414,13 +2425,13 @@
       <c r="C41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L41" s="13"/>
+      <c r="L41" s="11"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L42" s="13"/>
+      <c r="L42" s="11"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
@@ -2435,14 +2446,14 @@
       <c r="J43" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L43" s="13" t="s">
+      <c r="L43" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="M43" s="11" t="s">
+      <c r="M43" t="s">
+        <v>411</v>
+      </c>
+      <c r="N43" t="s">
         <v>412</v>
-      </c>
-      <c r="N43" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
@@ -2458,27 +2469,27 @@
       <c r="J44" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L44" s="13" t="s">
+      <c r="L44" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="M44" s="11" t="s">
-        <v>412</v>
+      <c r="M44" t="s">
+        <v>411</v>
       </c>
       <c r="N44" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L45" s="13"/>
+      <c r="L45" s="11"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L46" s="13"/>
+      <c r="L46" s="11"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
@@ -2493,14 +2504,14 @@
       <c r="J47" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L47" s="13" t="s">
+      <c r="L47" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="M47" s="11" t="s">
-        <v>415</v>
+      <c r="M47" t="s">
+        <v>414</v>
       </c>
       <c r="N47" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
@@ -2516,27 +2527,27 @@
       <c r="J48" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L48" s="13" t="s">
+      <c r="L48" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="M48" s="11" t="s">
-        <v>415</v>
+      <c r="M48" t="s">
+        <v>414</v>
       </c>
       <c r="N48" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C49" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L49" s="13"/>
+      <c r="L49" s="11"/>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C50" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L50" s="13"/>
+      <c r="L50" s="11"/>
     </row>
     <row r="51" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
@@ -2551,7 +2562,7 @@
       <c r="J51" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L51" s="13"/>
+      <c r="L51" s="11"/>
     </row>
     <row r="52" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
@@ -2566,7 +2577,7 @@
       <c r="J52" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L52" s="13"/>
+      <c r="L52" s="11"/>
     </row>
     <row r="53" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
@@ -2581,7 +2592,7 @@
       <c r="J53" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L53" s="13"/>
+      <c r="L53" s="11"/>
     </row>
     <row r="54" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
@@ -2596,7 +2607,7 @@
       <c r="J54" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L54" s="13" t="s">
+      <c r="L54" s="11" t="s">
         <v>83</v>
       </c>
       <c r="M54" t="s">
@@ -2616,7 +2627,7 @@
       <c r="J55" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L55" s="13"/>
+      <c r="L55" s="11"/>
       <c r="M55" t="s">
         <v>82</v>
       </c>
@@ -2634,7 +2645,7 @@
       <c r="J56" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L56" s="13" t="s">
+      <c r="L56" s="11" t="s">
         <v>83</v>
       </c>
       <c r="M56" t="s">
@@ -2654,7 +2665,7 @@
       <c r="J57" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L57" s="13"/>
+      <c r="L57" s="11"/>
       <c r="M57" t="s">
         <v>88</v>
       </c>
@@ -2672,17 +2683,17 @@
       <c r="J58" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L58" s="13" t="s">
+      <c r="L58" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="M58" s="11" t="s">
-        <v>408</v>
+      <c r="M58" t="s">
+        <v>407</v>
       </c>
       <c r="N58" t="s">
+        <v>415</v>
+      </c>
+      <c r="O58" t="s">
         <v>416</v>
-      </c>
-      <c r="O58" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="59" spans="3:15" x14ac:dyDescent="0.25">
@@ -2698,15 +2709,15 @@
       <c r="J59" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L59" s="13"/>
-      <c r="M59" s="11" t="s">
-        <v>408</v>
+      <c r="L59" s="11"/>
+      <c r="M59" t="s">
+        <v>407</v>
       </c>
       <c r="N59" t="s">
+        <v>415</v>
+      </c>
+      <c r="O59" t="s">
         <v>416</v>
-      </c>
-      <c r="O59" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="60" spans="3:15" x14ac:dyDescent="0.25">
@@ -2722,7 +2733,7 @@
       <c r="J60" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L60" s="13"/>
+      <c r="L60" s="11"/>
       <c r="M60" t="s">
         <v>97</v>
       </c>
@@ -2740,7 +2751,7 @@
       <c r="J61" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L61" s="13"/>
+      <c r="L61" s="11"/>
       <c r="M61" t="s">
         <v>100</v>
       </c>
@@ -2758,7 +2769,7 @@
       <c r="J62" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L62" s="13"/>
+      <c r="L62" s="11"/>
       <c r="M62" t="s">
         <v>103</v>
       </c>
@@ -2776,7 +2787,7 @@
       <c r="J63" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L63" s="13"/>
+      <c r="L63" s="11"/>
       <c r="M63" t="s">
         <v>106</v>
       </c>
@@ -2794,7 +2805,7 @@
       <c r="J64" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L64" s="13"/>
+      <c r="L64" s="11"/>
       <c r="M64" t="s">
         <v>109</v>
       </c>
@@ -2812,7 +2823,7 @@
       <c r="J65" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L65" s="13"/>
+      <c r="L65" s="11"/>
       <c r="M65" s="7" t="s">
         <v>112</v>
       </c>
@@ -2830,7 +2841,7 @@
       <c r="J66" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L66" s="13"/>
+      <c r="L66" s="11"/>
       <c r="M66" s="7" t="s">
         <v>115</v>
       </c>
@@ -2849,7 +2860,7 @@
       <c r="J67" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L67" s="13"/>
+      <c r="L67" s="11"/>
       <c r="M67" t="s">
         <v>118</v>
       </c>
@@ -2867,7 +2878,7 @@
       <c r="J68" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L68" s="13"/>
+      <c r="L68" s="11"/>
       <c r="M68" t="s">
         <v>121</v>
       </c>
@@ -2885,7 +2896,7 @@
       <c r="J69" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L69" s="13"/>
+      <c r="L69" s="11"/>
       <c r="M69" t="s">
         <v>56</v>
       </c>
@@ -2903,7 +2914,7 @@
       <c r="J70" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L70" s="13"/>
+      <c r="L70" s="11"/>
       <c r="M70" t="s">
         <v>126</v>
       </c>
@@ -2921,7 +2932,7 @@
       <c r="J71" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L71" s="13"/>
+      <c r="L71" s="11"/>
       <c r="M71" t="s">
         <v>397</v>
       </c>
@@ -2939,7 +2950,7 @@
       <c r="J72" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L72" s="13"/>
+      <c r="L72" s="11"/>
       <c r="M72" t="s">
         <v>398</v>
       </c>
@@ -2957,7 +2968,7 @@
       <c r="J73" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L73" s="13"/>
+      <c r="L73" s="11"/>
       <c r="M73" t="s">
         <v>60</v>
       </c>
@@ -2975,7 +2986,7 @@
       <c r="J74" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L74" s="13"/>
+      <c r="L74" s="11"/>
       <c r="M74" t="s">
         <v>399</v>
       </c>
@@ -2986,7 +2997,7 @@
       </c>
       <c r="H75" s="5"/>
       <c r="K75" s="9"/>
-      <c r="L75" s="13"/>
+      <c r="L75" s="11"/>
     </row>
     <row r="76" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D76" s="1" t="s">
@@ -2998,7 +3009,7 @@
       <c r="J76" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L76" s="13"/>
+      <c r="L76" s="11"/>
       <c r="M76" t="s">
         <v>137</v>
       </c>
@@ -3016,7 +3027,7 @@
       <c r="J77" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L77" s="13"/>
+      <c r="L77" s="11"/>
     </row>
     <row r="78" spans="4:23" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
@@ -3031,7 +3042,7 @@
       <c r="J78" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L78" s="13"/>
+      <c r="L78" s="11"/>
     </row>
     <row r="79" spans="4:23" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
@@ -3046,7 +3057,7 @@
       <c r="J79" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L79" s="13"/>
+      <c r="L79" s="11"/>
     </row>
     <row r="80" spans="4:23" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
@@ -3061,7 +3072,7 @@
       <c r="J80" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L80" s="13"/>
+      <c r="L80" s="11"/>
     </row>
     <row r="81" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E81" s="1" t="s">
@@ -3073,7 +3084,7 @@
       <c r="J81" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L81" s="13"/>
+      <c r="L81" s="11"/>
     </row>
     <row r="82" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
@@ -3088,7 +3099,7 @@
       <c r="J82" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L82" s="13"/>
+      <c r="L82" s="11"/>
     </row>
     <row r="83" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
@@ -3103,7 +3114,7 @@
       <c r="J83" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L83" s="13"/>
+      <c r="L83" s="11"/>
     </row>
     <row r="84" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
@@ -3118,7 +3129,7 @@
       <c r="J84" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L84" s="13"/>
+      <c r="L84" s="11"/>
     </row>
     <row r="85" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
@@ -3133,7 +3144,7 @@
       <c r="J85" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L85" s="13"/>
+      <c r="L85" s="11"/>
     </row>
     <row r="86" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
@@ -3148,7 +3159,7 @@
       <c r="J86" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L86" s="13"/>
+      <c r="L86" s="11"/>
     </row>
     <row r="87" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
@@ -3163,7 +3174,7 @@
       <c r="J87" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L87" s="13"/>
+      <c r="L87" s="11"/>
     </row>
     <row r="88" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
@@ -3178,7 +3189,7 @@
       <c r="J88" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L88" s="13"/>
+      <c r="L88" s="11"/>
     </row>
     <row r="89" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
@@ -3193,7 +3204,7 @@
       <c r="J89" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L89" s="13"/>
+      <c r="L89" s="11"/>
     </row>
     <row r="90" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
@@ -3208,14 +3219,14 @@
       <c r="J90" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L90" s="13"/>
+      <c r="L90" s="11"/>
     </row>
     <row r="91" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E91" s="1" t="s">
         <v>163</v>
       </c>
       <c r="J91" s="6"/>
-      <c r="L91" s="13"/>
+      <c r="L91" s="11"/>
     </row>
     <row r="92" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E92" s="1" t="s">
@@ -3227,7 +3238,7 @@
       <c r="J92" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L92" s="13"/>
+      <c r="L92" s="11"/>
     </row>
     <row r="93" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
@@ -3242,7 +3253,7 @@
       <c r="J93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L93" s="13"/>
+      <c r="L93" s="11"/>
     </row>
     <row r="94" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F94" t="s">
@@ -3257,7 +3268,7 @@
       <c r="J94" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L94" s="13"/>
+      <c r="L94" s="11"/>
     </row>
     <row r="95" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F95" s="1" t="s">
@@ -3269,7 +3280,7 @@
       <c r="J95" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L95" s="13"/>
+      <c r="L95" s="11"/>
     </row>
     <row r="96" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G96" t="s">
@@ -3284,14 +3295,14 @@
       <c r="J96" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L96" s="13"/>
+      <c r="L96" s="11"/>
     </row>
     <row r="97" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F97" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J97" s="6"/>
-      <c r="L97" s="13"/>
+      <c r="L97" s="11"/>
     </row>
     <row r="98" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F98" s="1" t="s">
@@ -3303,7 +3314,7 @@
       <c r="J98" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L98" s="13"/>
+      <c r="L98" s="11"/>
     </row>
     <row r="99" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G99" t="s">
@@ -3318,14 +3329,14 @@
       <c r="J99" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L99" s="13"/>
+      <c r="L99" s="11"/>
     </row>
     <row r="100" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F100" s="1" t="s">
         <v>175</v>
       </c>
       <c r="J100" s="6"/>
-      <c r="L100" s="13"/>
+      <c r="L100" s="11"/>
     </row>
     <row r="101" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F101" s="1" t="s">
@@ -3337,7 +3348,7 @@
       <c r="J101" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L101" s="13"/>
+      <c r="L101" s="11"/>
     </row>
     <row r="102" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F102" s="1"/>
@@ -3353,14 +3364,14 @@
       <c r="J102" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L102" s="13"/>
+      <c r="L102" s="11"/>
     </row>
     <row r="103" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F103" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J103" s="6"/>
-      <c r="L103" s="13"/>
+      <c r="L103" s="11"/>
     </row>
     <row r="104" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F104" s="1" t="s">
@@ -3372,7 +3383,7 @@
       <c r="J104" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L104" s="13"/>
+      <c r="L104" s="11"/>
     </row>
     <row r="105" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G105" t="s">
@@ -3387,27 +3398,27 @@
       <c r="J105" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L105" s="13"/>
+      <c r="L105" s="11"/>
     </row>
     <row r="106" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F106" s="1" t="s">
         <v>182</v>
       </c>
       <c r="J106" s="6"/>
-      <c r="L106" s="13"/>
+      <c r="L106" s="11"/>
     </row>
     <row r="107" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E107" s="1" t="s">
         <v>183</v>
       </c>
       <c r="J107" s="6"/>
-      <c r="L107" s="13"/>
+      <c r="L107" s="11"/>
     </row>
     <row r="108" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D108" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L108" s="13"/>
+      <c r="L108" s="11"/>
     </row>
     <row r="109" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D109" s="1" t="s">
@@ -3419,7 +3430,7 @@
       <c r="J109" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L109" s="13"/>
+      <c r="L109" s="11"/>
       <c r="M109" t="s">
         <v>137</v>
       </c>
@@ -3437,7 +3448,7 @@
       <c r="J110" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L110" s="13"/>
+      <c r="L110" s="11"/>
     </row>
     <row r="111" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
@@ -3452,7 +3463,7 @@
       <c r="J111" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L111" s="13"/>
+      <c r="L111" s="11"/>
     </row>
     <row r="112" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
@@ -3467,7 +3478,7 @@
       <c r="J112" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L112" s="13"/>
+      <c r="L112" s="11"/>
     </row>
     <row r="113" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
@@ -3482,7 +3493,7 @@
       <c r="J113" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L113" s="13"/>
+      <c r="L113" s="11"/>
     </row>
     <row r="114" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E114" s="1" t="s">
@@ -3494,7 +3505,7 @@
       <c r="J114" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L114" s="13"/>
+      <c r="L114" s="11"/>
     </row>
     <row r="115" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F115" t="s">
@@ -3509,7 +3520,7 @@
       <c r="J115" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L115" s="13"/>
+      <c r="L115" s="11"/>
     </row>
     <row r="116" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F116" t="s">
@@ -3524,7 +3535,7 @@
       <c r="J116" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L116" s="13"/>
+      <c r="L116" s="11"/>
     </row>
     <row r="117" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F117" t="s">
@@ -3539,7 +3550,7 @@
       <c r="J117" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L117" s="13"/>
+      <c r="L117" s="11"/>
     </row>
     <row r="118" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F118" t="s">
@@ -3554,7 +3565,7 @@
       <c r="J118" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L118" s="13"/>
+      <c r="L118" s="11"/>
     </row>
     <row r="119" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F119" t="s">
@@ -3569,7 +3580,7 @@
       <c r="J119" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L119" s="13"/>
+      <c r="L119" s="11"/>
     </row>
     <row r="120" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F120" t="s">
@@ -3584,7 +3595,7 @@
       <c r="J120" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L120" s="13"/>
+      <c r="L120" s="11"/>
     </row>
     <row r="121" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F121" t="s">
@@ -3599,7 +3610,7 @@
       <c r="J121" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L121" s="13"/>
+      <c r="L121" s="11"/>
     </row>
     <row r="122" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F122" t="s">
@@ -3614,7 +3625,7 @@
       <c r="J122" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L122" s="13"/>
+      <c r="L122" s="11"/>
     </row>
     <row r="123" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F123" t="s">
@@ -3629,14 +3640,14 @@
       <c r="J123" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L123" s="13"/>
+      <c r="L123" s="11"/>
     </row>
     <row r="124" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E124" s="1" t="s">
         <v>163</v>
       </c>
       <c r="J124" s="6"/>
-      <c r="L124" s="13"/>
+      <c r="L124" s="11"/>
     </row>
     <row r="125" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E125" s="1" t="s">
@@ -3648,7 +3659,7 @@
       <c r="J125" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L125" s="13"/>
+      <c r="L125" s="11"/>
     </row>
     <row r="126" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F126" t="s">
@@ -3663,7 +3674,7 @@
       <c r="J126" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L126" s="13"/>
+      <c r="L126" s="11"/>
     </row>
     <row r="127" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F127" t="s">
@@ -3678,7 +3689,7 @@
       <c r="J127" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L127" s="13"/>
+      <c r="L127" s="11"/>
     </row>
     <row r="128" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F128" s="1" t="s">
@@ -3690,7 +3701,7 @@
       <c r="J128" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L128" s="13"/>
+      <c r="L128" s="11"/>
     </row>
     <row r="129" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G129" t="s">
@@ -3705,14 +3716,14 @@
       <c r="J129" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L129" s="13"/>
+      <c r="L129" s="11"/>
     </row>
     <row r="130" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F130" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J130" s="6"/>
-      <c r="L130" s="13"/>
+      <c r="L130" s="11"/>
     </row>
     <row r="131" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F131" s="1" t="s">
@@ -3724,7 +3735,7 @@
       <c r="J131" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L131" s="13"/>
+      <c r="L131" s="11"/>
     </row>
     <row r="132" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G132" t="s">
@@ -3739,14 +3750,14 @@
       <c r="J132" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L132" s="13"/>
+      <c r="L132" s="11"/>
     </row>
     <row r="133" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F133" s="1" t="s">
         <v>175</v>
       </c>
       <c r="J133" s="6"/>
-      <c r="L133" s="13"/>
+      <c r="L133" s="11"/>
     </row>
     <row r="134" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F134" s="1" t="s">
@@ -3758,7 +3769,7 @@
       <c r="J134" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L134" s="13"/>
+      <c r="L134" s="11"/>
     </row>
     <row r="135" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G135" t="s">
@@ -3773,14 +3784,14 @@
       <c r="J135" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L135" s="13"/>
+      <c r="L135" s="11"/>
     </row>
     <row r="136" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F136" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J136" s="6"/>
-      <c r="L136" s="13"/>
+      <c r="L136" s="11"/>
     </row>
     <row r="137" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F137" s="1" t="s">
@@ -3792,7 +3803,7 @@
       <c r="J137" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L137" s="13"/>
+      <c r="L137" s="11"/>
     </row>
     <row r="138" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G138" t="s">
@@ -3807,27 +3818,27 @@
       <c r="J138" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L138" s="13"/>
+      <c r="L138" s="11"/>
     </row>
     <row r="139" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F139" s="1" t="s">
         <v>182</v>
       </c>
       <c r="J139" s="6"/>
-      <c r="L139" s="13"/>
+      <c r="L139" s="11"/>
     </row>
     <row r="140" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E140" s="1" t="s">
         <v>183</v>
       </c>
       <c r="J140" s="6"/>
-      <c r="L140" s="13"/>
+      <c r="L140" s="11"/>
     </row>
     <row r="141" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D141" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="L141" s="13"/>
+      <c r="L141" s="11"/>
     </row>
     <row r="142" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D142" s="1" t="s">
@@ -3839,7 +3850,7 @@
       <c r="J142" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L142" s="13"/>
+      <c r="L142" s="11"/>
       <c r="M142" t="s">
         <v>137</v>
       </c>
@@ -3857,7 +3868,7 @@
       <c r="J143" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L143" s="13"/>
+      <c r="L143" s="11"/>
     </row>
     <row r="144" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
@@ -3872,7 +3883,7 @@
       <c r="J144" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L144" s="13"/>
+      <c r="L144" s="11"/>
     </row>
     <row r="145" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
@@ -3887,7 +3898,7 @@
       <c r="J145" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L145" s="13"/>
+      <c r="L145" s="11"/>
     </row>
     <row r="146" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
@@ -3902,13 +3913,13 @@
       <c r="J146" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L146" s="13"/>
+      <c r="L146" s="11"/>
     </row>
     <row r="147" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E147" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="L147" s="13"/>
+      <c r="L147" s="11"/>
     </row>
     <row r="148" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F148" t="s">
@@ -3923,7 +3934,7 @@
       <c r="J148" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L148" s="13"/>
+      <c r="L148" s="11"/>
     </row>
     <row r="149" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F149" t="s">
@@ -3938,7 +3949,7 @@
       <c r="J149" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L149" s="13"/>
+      <c r="L149" s="11"/>
     </row>
     <row r="150" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F150" t="s">
@@ -3953,7 +3964,7 @@
       <c r="J150" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L150" s="13"/>
+      <c r="L150" s="11"/>
     </row>
     <row r="151" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F151" t="s">
@@ -3968,7 +3979,7 @@
       <c r="J151" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L151" s="13"/>
+      <c r="L151" s="11"/>
     </row>
     <row r="152" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F152" t="s">
@@ -3983,7 +3994,7 @@
       <c r="J152" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L152" s="13"/>
+      <c r="L152" s="11"/>
     </row>
     <row r="153" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F153" t="s">
@@ -3998,7 +4009,7 @@
       <c r="J153" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L153" s="13"/>
+      <c r="L153" s="11"/>
     </row>
     <row r="154" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F154" t="s">
@@ -4013,7 +4024,7 @@
       <c r="J154" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L154" s="13"/>
+      <c r="L154" s="11"/>
     </row>
     <row r="155" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F155" t="s">
@@ -4028,7 +4039,7 @@
       <c r="J155" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L155" s="13"/>
+      <c r="L155" s="11"/>
     </row>
     <row r="156" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F156" t="s">
@@ -4043,13 +4054,13 @@
       <c r="J156" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L156" s="13"/>
+      <c r="L156" s="11"/>
     </row>
     <row r="157" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E157" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L157" s="13"/>
+      <c r="L157" s="11"/>
     </row>
     <row r="158" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E158" s="1" t="s">
@@ -4061,7 +4072,7 @@
       <c r="J158" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L158" s="13"/>
+      <c r="L158" s="11"/>
     </row>
     <row r="159" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F159" t="s">
@@ -4076,7 +4087,7 @@
       <c r="J159" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L159" s="13"/>
+      <c r="L159" s="11"/>
     </row>
     <row r="160" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F160" t="s">
@@ -4091,7 +4102,7 @@
       <c r="J160" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L160" s="13"/>
+      <c r="L160" s="11"/>
     </row>
     <row r="161" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F161" s="1" t="s">
@@ -4103,7 +4114,7 @@
       <c r="J161" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L161" s="13"/>
+      <c r="L161" s="11"/>
     </row>
     <row r="162" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G162" t="s">
@@ -4118,14 +4129,14 @@
       <c r="J162" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L162" s="13"/>
+      <c r="L162" s="11"/>
     </row>
     <row r="163" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F163" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J163" s="6"/>
-      <c r="L163" s="13"/>
+      <c r="L163" s="11"/>
     </row>
     <row r="164" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F164" s="1" t="s">
@@ -4137,7 +4148,7 @@
       <c r="J164" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L164" s="13"/>
+      <c r="L164" s="11"/>
     </row>
     <row r="165" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G165" t="s">
@@ -4152,14 +4163,14 @@
       <c r="J165" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L165" s="13"/>
+      <c r="L165" s="11"/>
     </row>
     <row r="166" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F166" s="1" t="s">
         <v>175</v>
       </c>
       <c r="J166" s="6"/>
-      <c r="L166" s="13"/>
+      <c r="L166" s="11"/>
     </row>
     <row r="167" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F167" s="1" t="s">
@@ -4171,7 +4182,7 @@
       <c r="J167" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L167" s="13"/>
+      <c r="L167" s="11"/>
     </row>
     <row r="168" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G168" t="s">
@@ -4186,14 +4197,14 @@
       <c r="J168" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L168" s="13"/>
+      <c r="L168" s="11"/>
     </row>
     <row r="169" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F169" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J169" s="6"/>
-      <c r="L169" s="13"/>
+      <c r="L169" s="11"/>
     </row>
     <row r="170" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F170" s="1" t="s">
@@ -4205,7 +4216,7 @@
       <c r="J170" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L170" s="13"/>
+      <c r="L170" s="11"/>
     </row>
     <row r="171" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F171" s="1"/>
@@ -4221,31 +4232,31 @@
       <c r="J171" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L171" s="13"/>
+      <c r="L171" s="11"/>
     </row>
     <row r="172" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F172" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L172" s="13"/>
+      <c r="L172" s="11"/>
     </row>
     <row r="173" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E173" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L173" s="13"/>
+      <c r="L173" s="11"/>
     </row>
     <row r="174" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D174" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="L174" s="13"/>
+      <c r="L174" s="11"/>
     </row>
     <row r="175" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D175" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L175" s="13"/>
+      <c r="L175" s="11"/>
       <c r="M175" t="s">
         <v>137</v>
       </c>
@@ -4263,7 +4274,7 @@
       <c r="J176" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L176" s="13"/>
+      <c r="L176" s="11"/>
     </row>
     <row r="177" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E177" t="s">
@@ -4278,7 +4289,7 @@
       <c r="J177" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L177" s="13"/>
+      <c r="L177" s="11"/>
     </row>
     <row r="178" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E178" t="s">
@@ -4293,7 +4304,7 @@
       <c r="J178" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L178" s="13"/>
+      <c r="L178" s="11"/>
     </row>
     <row r="179" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E179" t="s">
@@ -4308,19 +4319,19 @@
       <c r="J179" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L179" s="13"/>
+      <c r="L179" s="11"/>
     </row>
     <row r="180" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
         <v>205</v>
       </c>
-      <c r="L180" s="13"/>
+      <c r="L180" s="11"/>
     </row>
     <row r="181" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E181" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="L181" s="13"/>
+      <c r="L181" s="11"/>
     </row>
     <row r="182" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F182" t="s">
@@ -4335,7 +4346,7 @@
       <c r="J182" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L182" s="13"/>
+      <c r="L182" s="11"/>
     </row>
     <row r="183" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F183" t="s">
@@ -4350,7 +4361,7 @@
       <c r="J183" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L183" s="13"/>
+      <c r="L183" s="11"/>
     </row>
     <row r="184" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F184" t="s">
@@ -4365,7 +4376,7 @@
       <c r="J184" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L184" s="13"/>
+      <c r="L184" s="11"/>
     </row>
     <row r="185" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F185" t="s">
@@ -4380,7 +4391,7 @@
       <c r="J185" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L185" s="13"/>
+      <c r="L185" s="11"/>
     </row>
     <row r="186" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F186" t="s">
@@ -4395,7 +4406,7 @@
       <c r="J186" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L186" s="13"/>
+      <c r="L186" s="11"/>
     </row>
     <row r="187" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F187" t="s">
@@ -4410,7 +4421,7 @@
       <c r="J187" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L187" s="13"/>
+      <c r="L187" s="11"/>
     </row>
     <row r="188" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F188" t="s">
@@ -4425,7 +4436,7 @@
       <c r="J188" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L188" s="13"/>
+      <c r="L188" s="11"/>
     </row>
     <row r="189" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F189" t="s">
@@ -4440,7 +4451,7 @@
       <c r="J189" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L189" s="13"/>
+      <c r="L189" s="11"/>
     </row>
     <row r="190" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F190" t="s">
@@ -4455,13 +4466,13 @@
       <c r="J190" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L190" s="13"/>
+      <c r="L190" s="11"/>
     </row>
     <row r="191" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F191" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="L191" s="13"/>
+      <c r="L191" s="11"/>
     </row>
     <row r="192" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G192" t="s">
@@ -4476,7 +4487,7 @@
       <c r="J192" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L192" s="13"/>
+      <c r="L192" s="11"/>
     </row>
     <row r="193" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G193" t="s">
@@ -4491,7 +4502,7 @@
       <c r="J193" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L193" s="13"/>
+      <c r="L193" s="11"/>
     </row>
     <row r="194" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G194" t="s">
@@ -4506,19 +4517,19 @@
       <c r="J194" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L194" s="13"/>
+      <c r="L194" s="11"/>
     </row>
     <row r="195" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F195" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L195" s="13"/>
+      <c r="L195" s="11"/>
     </row>
     <row r="196" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E196" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L196" s="13"/>
+      <c r="L196" s="11"/>
     </row>
     <row r="197" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E197" s="1" t="s">
@@ -4530,7 +4541,7 @@
       <c r="J197" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L197" s="13"/>
+      <c r="L197" s="11"/>
     </row>
     <row r="198" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F198" t="s">
@@ -4545,7 +4556,7 @@
       <c r="J198" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L198" s="13"/>
+      <c r="L198" s="11"/>
     </row>
     <row r="199" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F199" t="s">
@@ -4560,7 +4571,7 @@
       <c r="J199" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L199" s="13"/>
+      <c r="L199" s="11"/>
     </row>
     <row r="200" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F200" t="s">
@@ -4572,7 +4583,7 @@
       <c r="J200" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L200" s="13"/>
+      <c r="L200" s="11"/>
     </row>
     <row r="201" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F201" s="1"/>
@@ -4588,14 +4599,14 @@
       <c r="J201" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L201" s="13"/>
+      <c r="L201" s="11"/>
     </row>
     <row r="202" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F202" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J202" s="6"/>
-      <c r="L202" s="13"/>
+      <c r="L202" s="11"/>
     </row>
     <row r="203" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F203" s="1" t="s">
@@ -4607,7 +4618,7 @@
       <c r="J203" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L203" s="13"/>
+      <c r="L203" s="11"/>
     </row>
     <row r="204" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G204" t="s">
@@ -4622,14 +4633,14 @@
       <c r="J204" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L204" s="13"/>
+      <c r="L204" s="11"/>
     </row>
     <row r="205" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F205" s="1" t="s">
         <v>175</v>
       </c>
       <c r="J205" s="6"/>
-      <c r="L205" s="13"/>
+      <c r="L205" s="11"/>
     </row>
     <row r="206" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F206" s="1" t="s">
@@ -4641,7 +4652,7 @@
       <c r="J206" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L206" s="13"/>
+      <c r="L206" s="11"/>
     </row>
     <row r="207" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G207" t="s">
@@ -4656,14 +4667,14 @@
       <c r="J207" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L207" s="13"/>
+      <c r="L207" s="11"/>
     </row>
     <row r="208" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F208" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J208" s="6"/>
-      <c r="L208" s="13"/>
+      <c r="L208" s="11"/>
     </row>
     <row r="209" spans="4:15" x14ac:dyDescent="0.25">
       <c r="F209" s="1" t="s">
@@ -4675,7 +4686,7 @@
       <c r="J209" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L209" s="13"/>
+      <c r="L209" s="11"/>
     </row>
     <row r="210" spans="4:15" x14ac:dyDescent="0.25">
       <c r="G210" t="s">
@@ -4690,37 +4701,37 @@
       <c r="J210" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L210" s="13"/>
+      <c r="L210" s="11"/>
     </row>
     <row r="211" spans="4:15" x14ac:dyDescent="0.25">
       <c r="F211" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L211" s="13"/>
+      <c r="L211" s="11"/>
     </row>
     <row r="212" spans="4:15" x14ac:dyDescent="0.25">
       <c r="E212" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L212" s="13"/>
+      <c r="L212" s="11"/>
     </row>
     <row r="213" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D213" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L213" s="13"/>
+      <c r="L213" s="11"/>
     </row>
     <row r="214" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D214" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="L214" s="13"/>
+      <c r="L214" s="11"/>
     </row>
     <row r="215" spans="4:15" x14ac:dyDescent="0.25">
       <c r="E215" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L215" s="13"/>
+      <c r="L215" s="11"/>
     </row>
     <row r="216" spans="4:15" x14ac:dyDescent="0.25">
       <c r="F216" t="s">
@@ -4735,34 +4746,34 @@
       <c r="J216" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L216" s="13"/>
+      <c r="L216" s="11"/>
       <c r="M216" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N216" t="s">
+        <v>417</v>
+      </c>
+      <c r="O216" t="s">
         <v>418</v>
-      </c>
-      <c r="O216" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="217" spans="4:15" x14ac:dyDescent="0.25">
       <c r="E217" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L217" s="13"/>
+      <c r="L217" s="11"/>
     </row>
     <row r="218" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D218" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L218" s="13"/>
+      <c r="L218" s="11"/>
     </row>
     <row r="219" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D219" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L219" s="13"/>
+      <c r="L219" s="11"/>
     </row>
     <row r="220" spans="4:15" x14ac:dyDescent="0.25">
       <c r="E220" t="s">
@@ -4777,12 +4788,12 @@
       <c r="J220" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L220" s="13"/>
-      <c r="M220" s="11" t="s">
+      <c r="L220" s="11"/>
+      <c r="M220" t="s">
+        <v>411</v>
+      </c>
+      <c r="N220" t="s">
         <v>412</v>
-      </c>
-      <c r="N220" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="221" spans="4:15" x14ac:dyDescent="0.25">
@@ -4798,25 +4809,25 @@
       <c r="J221" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L221" s="13"/>
-      <c r="M221" s="11" t="s">
-        <v>412</v>
+      <c r="L221" s="11"/>
+      <c r="M221" t="s">
+        <v>411</v>
       </c>
       <c r="N221" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="222" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D222" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L222" s="13"/>
+      <c r="L222" s="11"/>
     </row>
     <row r="223" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D223" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L223" s="13"/>
+      <c r="L223" s="11"/>
     </row>
     <row r="224" spans="4:15" x14ac:dyDescent="0.25">
       <c r="E224" t="s">
@@ -4831,12 +4842,12 @@
       <c r="J224" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L224" s="13"/>
-      <c r="M224" s="11" t="s">
-        <v>415</v>
+      <c r="L224" s="11"/>
+      <c r="M224" t="s">
+        <v>414</v>
       </c>
       <c r="N224" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="225" spans="4:19" x14ac:dyDescent="0.25">
@@ -4852,25 +4863,25 @@
       <c r="J225" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L225" s="13"/>
-      <c r="M225" s="11" t="s">
-        <v>415</v>
+      <c r="L225" s="11"/>
+      <c r="M225" t="s">
+        <v>414</v>
       </c>
       <c r="N225" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="226" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D226" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L226" s="13"/>
+      <c r="L226" s="11"/>
     </row>
     <row r="227" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D227" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="L227" s="13"/>
+      <c r="L227" s="11"/>
     </row>
     <row r="228" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E228" t="s">
@@ -4885,20 +4896,20 @@
       <c r="J228" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L228" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="M228" s="11" t="s">
+      <c r="L228" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="M228" t="s">
+        <v>419</v>
+      </c>
+      <c r="N228" t="s">
         <v>420</v>
       </c>
-      <c r="N228" t="s">
+      <c r="O228" t="s">
         <v>421</v>
       </c>
-      <c r="O228" t="s">
+      <c r="P228" t="s">
         <v>422</v>
-      </c>
-      <c r="P228" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="229" spans="4:19" x14ac:dyDescent="0.25">
@@ -4914,20 +4925,20 @@
       <c r="J229" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L229" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="M229" s="11" t="s">
+      <c r="L229" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="M229" t="s">
+        <v>419</v>
+      </c>
+      <c r="N229" t="s">
         <v>420</v>
       </c>
-      <c r="N229" t="s">
+      <c r="O229" t="s">
         <v>421</v>
       </c>
-      <c r="O229" t="s">
-        <v>422</v>
-      </c>
       <c r="P229" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="230" spans="4:19" x14ac:dyDescent="0.25">
@@ -4943,7 +4954,7 @@
       <c r="J230" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L230" s="13"/>
+      <c r="L230" s="11"/>
       <c r="M230" t="s">
         <v>229</v>
       </c>
@@ -4961,18 +4972,18 @@
       <c r="J231" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L231" s="13"/>
-      <c r="M231" s="11" t="s">
+      <c r="L231" s="11"/>
+      <c r="M231" t="s">
+        <v>419</v>
+      </c>
+      <c r="N231" t="s">
         <v>420</v>
       </c>
-      <c r="N231" t="s">
+      <c r="O231" t="s">
         <v>421</v>
       </c>
-      <c r="O231" t="s">
-        <v>422</v>
-      </c>
       <c r="P231" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="232" spans="4:19" x14ac:dyDescent="0.25">
@@ -4988,22 +4999,22 @@
       <c r="J232" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L232" s="13"/>
-      <c r="M232" s="11" t="s">
+      <c r="L232" s="11"/>
+      <c r="M232" t="s">
+        <v>419</v>
+      </c>
+      <c r="N232" t="s">
         <v>420</v>
       </c>
-      <c r="N232" t="s">
-        <v>421</v>
-      </c>
       <c r="O232" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="233" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E233" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L233" s="13"/>
+      <c r="L233" s="11"/>
     </row>
     <row r="234" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F234" t="s">
@@ -5018,58 +5029,58 @@
       <c r="J234" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L234" s="15" t="s">
+      <c r="L234" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="M234" t="s">
+        <v>419</v>
+      </c>
+      <c r="N234" t="s">
+        <v>420</v>
+      </c>
+      <c r="O234" t="s">
+        <v>421</v>
+      </c>
+      <c r="P234" t="s">
         <v>427</v>
       </c>
-      <c r="M234" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="N234" t="s">
-        <v>421</v>
-      </c>
-      <c r="O234" t="s">
-        <v>422</v>
-      </c>
-      <c r="P234" t="s">
+      <c r="Q234" t="s">
         <v>428</v>
       </c>
-      <c r="Q234" t="s">
+      <c r="R234" t="s">
         <v>429</v>
       </c>
-      <c r="R234" t="s">
+      <c r="S234" t="s">
         <v>430</v>
-      </c>
-      <c r="S234" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="235" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E235" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="L235" s="13"/>
+      <c r="L235" s="11"/>
     </row>
     <row r="236" spans="4:19" x14ac:dyDescent="0.25">
       <c r="E236" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L236" s="14" t="s">
+      <c r="L236" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="M236" t="s">
+        <v>419</v>
+      </c>
+      <c r="N236" t="s">
+        <v>420</v>
+      </c>
+      <c r="O236" t="s">
+        <v>421</v>
+      </c>
+      <c r="P236" t="s">
         <v>434</v>
       </c>
-      <c r="M236" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="N236" t="s">
-        <v>421</v>
-      </c>
-      <c r="O236" t="s">
-        <v>422</v>
-      </c>
-      <c r="P236" t="s">
+      <c r="Q236" t="s">
         <v>435</v>
-      </c>
-      <c r="Q236" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="237" spans="4:19" x14ac:dyDescent="0.25">
@@ -5085,31 +5096,31 @@
       <c r="J237" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L237" s="13"/>
-      <c r="M237" s="11" t="s">
+      <c r="L237" s="11"/>
+      <c r="M237" t="s">
+        <v>419</v>
+      </c>
+      <c r="N237" t="s">
         <v>420</v>
       </c>
-      <c r="N237" t="s">
+      <c r="O237" t="s">
         <v>421</v>
       </c>
-      <c r="O237" t="s">
-        <v>422</v>
-      </c>
       <c r="P237" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q237" t="s">
+        <v>436</v>
+      </c>
+      <c r="R237" t="s">
         <v>437</v>
-      </c>
-      <c r="R237" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="238" spans="4:19" x14ac:dyDescent="0.25">
       <c r="F238" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="L238" s="13"/>
+      <c r="L238" s="11"/>
     </row>
     <row r="239" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G239" t="s">
@@ -5124,21 +5135,21 @@
       <c r="J239" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L239" s="13"/>
-      <c r="M239" s="11" t="s">
+      <c r="L239" s="11"/>
+      <c r="M239" t="s">
+        <v>419</v>
+      </c>
+      <c r="N239" t="s">
         <v>420</v>
       </c>
-      <c r="N239" t="s">
+      <c r="O239" t="s">
         <v>421</v>
       </c>
-      <c r="O239" t="s">
-        <v>422</v>
-      </c>
       <c r="P239" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q239" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="240" spans="4:19" x14ac:dyDescent="0.25">
@@ -5154,21 +5165,21 @@
       <c r="J240" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L240" s="13"/>
-      <c r="M240" s="11" t="s">
+      <c r="L240" s="11"/>
+      <c r="M240" t="s">
+        <v>419</v>
+      </c>
+      <c r="N240" t="s">
         <v>420</v>
       </c>
-      <c r="N240" t="s">
+      <c r="O240" t="s">
         <v>421</v>
       </c>
-      <c r="O240" t="s">
-        <v>422</v>
-      </c>
       <c r="P240" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q240" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="241" spans="4:18" x14ac:dyDescent="0.25">
@@ -5184,56 +5195,56 @@
       <c r="J241" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L241" s="13"/>
-      <c r="M241" s="11" t="s">
+      <c r="L241" s="11"/>
+      <c r="M241" t="s">
+        <v>419</v>
+      </c>
+      <c r="N241" t="s">
         <v>420</v>
       </c>
-      <c r="N241" t="s">
+      <c r="O241" t="s">
         <v>421</v>
       </c>
-      <c r="O241" t="s">
-        <v>422</v>
-      </c>
       <c r="P241" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q241" t="s">
         <v>439</v>
-      </c>
-      <c r="Q241" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="242" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F242" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L242" s="13"/>
+      <c r="L242" s="11"/>
     </row>
     <row r="243" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E243" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L243" s="13"/>
+      <c r="L243" s="11"/>
     </row>
     <row r="244" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E244" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="L244" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="M244" s="11" t="s">
+      <c r="L244" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="M244" t="s">
+        <v>419</v>
+      </c>
+      <c r="N244" t="s">
         <v>420</v>
       </c>
-      <c r="N244" t="s">
+      <c r="O244" t="s">
         <v>421</v>
       </c>
-      <c r="O244" t="s">
-        <v>422</v>
-      </c>
       <c r="P244" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q244" t="s">
         <v>435</v>
-      </c>
-      <c r="Q244" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="245" spans="4:18" x14ac:dyDescent="0.25">
@@ -5249,32 +5260,31 @@
       <c r="J245" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L245" s="13"/>
-      <c r="M245" s="11" t="s">
+      <c r="L245" s="11"/>
+      <c r="M245" t="s">
+        <v>419</v>
+      </c>
+      <c r="N245" t="s">
         <v>420</v>
       </c>
-      <c r="N245" t="s">
+      <c r="O245" t="s">
         <v>421</v>
       </c>
-      <c r="O245" t="s">
-        <v>422</v>
-      </c>
       <c r="P245" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q245" t="s">
+        <v>436</v>
+      </c>
+      <c r="R245" t="s">
         <v>437</v>
-      </c>
-      <c r="R245" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="246" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F246" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L246" s="13"/>
-      <c r="M246" s="11"/>
+      <c r="L246" s="11"/>
     </row>
     <row r="247" spans="4:18" x14ac:dyDescent="0.25">
       <c r="G247" t="s">
@@ -5289,21 +5299,21 @@
       <c r="J247" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L247" s="13"/>
-      <c r="M247" s="11" t="s">
+      <c r="L247" s="11"/>
+      <c r="M247" t="s">
+        <v>419</v>
+      </c>
+      <c r="N247" t="s">
         <v>420</v>
       </c>
-      <c r="N247" t="s">
+      <c r="O247" t="s">
         <v>421</v>
       </c>
-      <c r="O247" t="s">
-        <v>422</v>
-      </c>
       <c r="P247" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q247" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="248" spans="4:18" x14ac:dyDescent="0.25">
@@ -5319,21 +5329,21 @@
       <c r="J248" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L248" s="13"/>
-      <c r="M248" s="11" t="s">
+      <c r="L248" s="11"/>
+      <c r="M248" t="s">
+        <v>419</v>
+      </c>
+      <c r="N248" t="s">
         <v>420</v>
       </c>
-      <c r="N248" t="s">
+      <c r="O248" t="s">
         <v>421</v>
       </c>
-      <c r="O248" t="s">
-        <v>422</v>
-      </c>
       <c r="P248" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q248" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="249" spans="4:18" x14ac:dyDescent="0.25">
@@ -5349,40 +5359,40 @@
       <c r="J249" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L249" s="13"/>
-      <c r="M249" s="11" t="s">
+      <c r="L249" s="11"/>
+      <c r="M249" t="s">
+        <v>419</v>
+      </c>
+      <c r="N249" t="s">
         <v>420</v>
       </c>
-      <c r="N249" t="s">
+      <c r="O249" t="s">
         <v>421</v>
       </c>
-      <c r="O249" t="s">
-        <v>422</v>
-      </c>
       <c r="P249" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q249" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="250" spans="4:18" x14ac:dyDescent="0.25">
       <c r="F250" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="L250" s="13"/>
+      <c r="L250" s="11"/>
     </row>
     <row r="251" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E251" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="L251" s="13"/>
+      <c r="L251" s="11"/>
     </row>
     <row r="252" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D252" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="L252" s="13"/>
+      <c r="L252" s="11"/>
     </row>
     <row r="253" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D253" s="1" t="s">
@@ -5394,7 +5404,7 @@
       <c r="J253" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L253" s="13"/>
+      <c r="L253" s="11"/>
     </row>
     <row r="254" spans="4:18" x14ac:dyDescent="0.25">
       <c r="E254" t="s">
@@ -5409,21 +5419,21 @@
       <c r="J254" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L254" s="13"/>
-      <c r="M254" s="11" t="s">
-        <v>408</v>
+      <c r="L254" s="11"/>
+      <c r="M254" t="s">
+        <v>407</v>
       </c>
       <c r="N254" t="s">
+        <v>420</v>
+      </c>
+      <c r="O254" t="s">
         <v>421</v>
       </c>
-      <c r="O254" t="s">
-        <v>422</v>
-      </c>
       <c r="P254" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q254" t="s">
         <v>443</v>
-      </c>
-      <c r="Q254" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="255" spans="4:18" x14ac:dyDescent="0.25">
@@ -5439,21 +5449,21 @@
       <c r="J255" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L255" s="13"/>
-      <c r="M255" s="11" t="s">
-        <v>408</v>
+      <c r="L255" s="11"/>
+      <c r="M255" t="s">
+        <v>407</v>
       </c>
       <c r="N255" t="s">
+        <v>420</v>
+      </c>
+      <c r="O255" t="s">
         <v>421</v>
       </c>
-      <c r="O255" t="s">
-        <v>422</v>
-      </c>
       <c r="P255" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q255" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="256" spans="4:18" x14ac:dyDescent="0.25">
@@ -5469,29 +5479,28 @@
       <c r="J256" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L256" s="13"/>
-      <c r="M256" s="11" t="s">
-        <v>408</v>
+      <c r="L256" s="11"/>
+      <c r="M256" t="s">
+        <v>407</v>
       </c>
       <c r="N256" t="s">
+        <v>420</v>
+      </c>
+      <c r="O256" t="s">
         <v>421</v>
       </c>
-      <c r="O256" t="s">
-        <v>422</v>
-      </c>
       <c r="P256" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q256" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="257" spans="4:16" x14ac:dyDescent="0.25">
       <c r="E257" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="L257" s="13"/>
-      <c r="M257" s="11"/>
+      <c r="L257" s="11"/>
     </row>
     <row r="258" spans="4:16" x14ac:dyDescent="0.25">
       <c r="F258" t="s">
@@ -5506,31 +5515,31 @@
       <c r="J258" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L258" s="13"/>
-      <c r="M258" s="11" t="s">
-        <v>408</v>
+      <c r="L258" s="11"/>
+      <c r="M258" t="s">
+        <v>407</v>
       </c>
       <c r="N258" t="s">
+        <v>420</v>
+      </c>
+      <c r="O258" t="s">
         <v>421</v>
       </c>
-      <c r="O258" t="s">
-        <v>422</v>
-      </c>
       <c r="P258" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="259" spans="4:16" x14ac:dyDescent="0.25">
       <c r="E259" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="L259" s="13"/>
+      <c r="L259" s="11"/>
     </row>
     <row r="260" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D260" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="L260" s="13"/>
+      <c r="L260" s="11"/>
     </row>
     <row r="261" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D261" s="1" t="s">
@@ -5542,7 +5551,7 @@
       <c r="J261" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L261" s="13"/>
+      <c r="L261" s="11"/>
     </row>
     <row r="262" spans="4:16" x14ac:dyDescent="0.25">
       <c r="E262" t="s">
@@ -5557,10 +5566,9 @@
       <c r="J262" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L262" s="13" t="s">
+      <c r="L262" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="M262" s="11"/>
     </row>
     <row r="263" spans="4:16" x14ac:dyDescent="0.25">
       <c r="E263" t="s">
@@ -5575,20 +5583,19 @@
       <c r="J263" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L263" s="13"/>
-      <c r="M263" s="11" t="s">
+      <c r="L263" s="11"/>
+      <c r="M263" t="s">
+        <v>407</v>
+      </c>
+      <c r="N263" t="s">
         <v>408</v>
-      </c>
-      <c r="N263" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="264" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D264" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="L264" s="13"/>
-      <c r="M264" s="11"/>
+      <c r="L264" s="11"/>
     </row>
     <row r="265" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D265" s="1" t="s">
@@ -5600,8 +5607,7 @@
       <c r="J265" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L265" s="13"/>
-      <c r="M265" s="11"/>
+      <c r="L265" s="11"/>
     </row>
     <row r="266" spans="4:16" x14ac:dyDescent="0.25">
       <c r="E266" t="s">
@@ -5616,12 +5622,12 @@
       <c r="J266" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L266" s="13"/>
-      <c r="M266" s="11" t="s">
-        <v>408</v>
+      <c r="L266" s="11"/>
+      <c r="M266" t="s">
+        <v>407</v>
       </c>
       <c r="N266" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="267" spans="4:16" x14ac:dyDescent="0.25">
@@ -5638,17 +5644,15 @@
         <v>32</v>
       </c>
       <c r="K267" s="9"/>
-      <c r="L267" s="13" t="s">
+      <c r="L267" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="M267" s="11"/>
     </row>
     <row r="268" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D268" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="L268" s="13"/>
-      <c r="M268" s="11"/>
+      <c r="L268" s="11"/>
     </row>
     <row r="269" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D269" s="1" t="s">
@@ -5660,8 +5664,7 @@
       <c r="J269" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L269" s="13"/>
-      <c r="M269" s="11"/>
+      <c r="L269" s="11"/>
     </row>
     <row r="270" spans="4:16" x14ac:dyDescent="0.25">
       <c r="E270" t="s">
@@ -5676,12 +5679,12 @@
       <c r="J270" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L270" s="13"/>
-      <c r="M270" s="11" t="s">
-        <v>408</v>
+      <c r="L270" s="11"/>
+      <c r="M270" t="s">
+        <v>407</v>
       </c>
       <c r="N270" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="271" spans="4:16" x14ac:dyDescent="0.25">
@@ -5698,17 +5701,15 @@
         <v>32</v>
       </c>
       <c r="K271" s="9"/>
-      <c r="L271" s="13" t="s">
+      <c r="L271" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="M271" s="11"/>
     </row>
     <row r="272" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D272" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="L272" s="13"/>
-      <c r="M272" s="11"/>
+      <c r="L272" s="11"/>
     </row>
     <row r="273" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D273" s="1" t="s">
@@ -5720,8 +5721,7 @@
       <c r="J273" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L273" s="13"/>
-      <c r="M273" s="11"/>
+      <c r="L273" s="11"/>
     </row>
     <row r="274" spans="4:15" x14ac:dyDescent="0.25">
       <c r="E274" t="s">
@@ -5736,12 +5736,12 @@
       <c r="J274" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L274" s="13"/>
-      <c r="M274" s="11" t="s">
+      <c r="L274" s="11"/>
+      <c r="M274" t="s">
+        <v>448</v>
+      </c>
+      <c r="N274" t="s">
         <v>449</v>
-      </c>
-      <c r="N274" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="275" spans="4:15" x14ac:dyDescent="0.25">
@@ -5757,19 +5757,19 @@
       <c r="J275" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L275" s="13"/>
-      <c r="M275" s="11" t="s">
-        <v>449</v>
+      <c r="L275" s="11"/>
+      <c r="M275" t="s">
+        <v>448</v>
       </c>
       <c r="N275" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="276" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D276" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="L276" s="13"/>
+      <c r="L276" s="11"/>
     </row>
     <row r="277" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D277" s="1" t="s">
@@ -5781,17 +5781,17 @@
       <c r="J277" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L277" s="13" t="s">
+      <c r="L277" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="M277" t="s">
+        <v>407</v>
+      </c>
+      <c r="N277" t="s">
         <v>452</v>
       </c>
-      <c r="M277" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="N277" t="s">
+      <c r="O277" t="s">
         <v>453</v>
-      </c>
-      <c r="O277" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="278" spans="4:15" x14ac:dyDescent="0.25">
@@ -5807,15 +5807,15 @@
       <c r="J278" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L278" s="13"/>
-      <c r="M278" s="11" t="s">
-        <v>408</v>
+      <c r="L278" s="11"/>
+      <c r="M278" t="s">
+        <v>407</v>
       </c>
       <c r="N278" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O278" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="279" spans="4:15" x14ac:dyDescent="0.25">
@@ -5831,15 +5831,15 @@
       <c r="J279" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L279" s="13"/>
-      <c r="M279" s="11" t="s">
-        <v>408</v>
+      <c r="L279" s="11"/>
+      <c r="M279" t="s">
+        <v>407</v>
       </c>
       <c r="N279" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O279" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="280" spans="4:15" x14ac:dyDescent="0.25">
@@ -5855,15 +5855,15 @@
       <c r="J280" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L280" s="13"/>
-      <c r="M280" s="11" t="s">
-        <v>408</v>
+      <c r="L280" s="11"/>
+      <c r="M280" t="s">
+        <v>407</v>
       </c>
       <c r="N280" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O280" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="281" spans="4:15" x14ac:dyDescent="0.25">
@@ -5879,24 +5879,24 @@
       <c r="J281" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L281" s="14" t="s">
+      <c r="L281" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="M281" t="s">
+        <v>407</v>
+      </c>
+      <c r="N281" t="s">
+        <v>452</v>
+      </c>
+      <c r="O281" t="s">
         <v>458</v>
-      </c>
-      <c r="M281" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="N281" t="s">
-        <v>453</v>
-      </c>
-      <c r="O281" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="282" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D282" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="L282" s="13"/>
+      <c r="L282" s="11"/>
     </row>
     <row r="283" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D283" s="1" t="s">
@@ -5908,7 +5908,7 @@
       <c r="J283" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L283" s="13"/>
+      <c r="L283" s="11"/>
       <c r="M283" t="s">
         <v>287</v>
       </c>
@@ -5926,12 +5926,12 @@
       <c r="J284" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L284" s="13"/>
-      <c r="M284" s="11" t="s">
+      <c r="L284" s="11"/>
+      <c r="M284" t="s">
+        <v>459</v>
+      </c>
+      <c r="N284" t="s">
         <v>460</v>
-      </c>
-      <c r="N284" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="285" spans="4:15" x14ac:dyDescent="0.25">
@@ -5947,12 +5947,12 @@
       <c r="J285" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L285" s="13"/>
-      <c r="M285" s="11" t="s">
-        <v>460</v>
+      <c r="L285" s="11"/>
+      <c r="M285" t="s">
+        <v>459</v>
       </c>
       <c r="N285" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="286" spans="4:15" x14ac:dyDescent="0.25">
@@ -5968,12 +5968,12 @@
       <c r="J286" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L286" s="13"/>
-      <c r="M286" s="11" t="s">
-        <v>460</v>
+      <c r="L286" s="11"/>
+      <c r="M286" t="s">
+        <v>459</v>
       </c>
       <c r="N286" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="287" spans="4:15" x14ac:dyDescent="0.25">
@@ -5989,25 +5989,25 @@
       <c r="J287" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L287" s="13"/>
-      <c r="M287" s="11" t="s">
-        <v>460</v>
+      <c r="L287" s="11"/>
+      <c r="M287" t="s">
+        <v>459</v>
       </c>
       <c r="N287" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="288" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D288" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="L288" s="13"/>
+      <c r="L288" s="11"/>
     </row>
     <row r="289" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D289" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L289" s="13"/>
+      <c r="L289" s="11"/>
     </row>
     <row r="290" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E290" t="s">
@@ -6022,7 +6022,7 @@
       <c r="J290" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L290" s="13"/>
+      <c r="L290" s="11"/>
       <c r="M290" t="s">
         <v>296</v>
       </c>
@@ -6031,13 +6031,13 @@
       <c r="D291" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="L291" s="13"/>
+      <c r="L291" s="11"/>
     </row>
     <row r="292" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D292" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="L292" s="13"/>
+      <c r="L292" s="11"/>
     </row>
     <row r="293" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E293" t="s">
@@ -6052,7 +6052,7 @@
       <c r="J293" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L293" s="13"/>
+      <c r="L293" s="11"/>
       <c r="M293" t="s">
         <v>301</v>
       </c>
@@ -6061,7 +6061,7 @@
       <c r="D294" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L294" s="13"/>
+      <c r="L294" s="11"/>
     </row>
     <row r="295" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D295" s="1" t="s">
@@ -6073,7 +6073,7 @@
       <c r="J295" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L295" s="13"/>
+      <c r="L295" s="11"/>
     </row>
     <row r="296" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E296" t="s">
@@ -6088,7 +6088,7 @@
       <c r="J296" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L296" s="13"/>
+      <c r="L296" s="11"/>
       <c r="M296" t="s">
         <v>306</v>
       </c>
@@ -6106,7 +6106,7 @@
       <c r="J297" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L297" s="13"/>
+      <c r="L297" s="11"/>
     </row>
     <row r="298" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E298" t="s">
@@ -6121,7 +6121,7 @@
       <c r="J298" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L298" s="13"/>
+      <c r="L298" s="11"/>
       <c r="M298" t="s">
         <v>311</v>
       </c>
@@ -6130,13 +6130,13 @@
       <c r="D299" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L299" s="13"/>
+      <c r="L299" s="11"/>
     </row>
     <row r="300" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D300" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="L300" s="13"/>
+      <c r="L300" s="11"/>
     </row>
     <row r="301" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E301" t="s">
@@ -6151,7 +6151,7 @@
       <c r="J301" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L301" s="13"/>
+      <c r="L301" s="11"/>
       <c r="M301" t="s">
         <v>316</v>
       </c>
@@ -6160,7 +6160,7 @@
       <c r="D302" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="L302" s="13"/>
+      <c r="L302" s="11"/>
     </row>
     <row r="303" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D303" s="1" t="s">
@@ -6172,7 +6172,7 @@
       <c r="J303" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L303" s="13"/>
+      <c r="L303" s="11"/>
     </row>
     <row r="304" spans="4:13" x14ac:dyDescent="0.25">
       <c r="E304" t="s">
@@ -6187,7 +6187,7 @@
       <c r="J304" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L304" s="13"/>
+      <c r="L304" s="11"/>
       <c r="M304" t="s">
         <v>320</v>
       </c>
@@ -6205,7 +6205,7 @@
       <c r="J305" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L305" s="13"/>
+      <c r="L305" s="11"/>
     </row>
     <row r="306" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E306" t="s">
@@ -6220,7 +6220,7 @@
       <c r="J306" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L306" s="13"/>
+      <c r="L306" s="11"/>
       <c r="M306" t="s">
         <v>325</v>
       </c>
@@ -6241,7 +6241,7 @@
       <c r="K307">
         <v>1.3</v>
       </c>
-      <c r="L307" s="13"/>
+      <c r="L307" s="11"/>
       <c r="M307" t="s">
         <v>328</v>
       </c>
@@ -6250,13 +6250,13 @@
       <c r="D308" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L308" s="13"/>
+      <c r="L308" s="11"/>
     </row>
     <row r="309" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D309" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="L309" s="13"/>
+      <c r="L309" s="11"/>
     </row>
     <row r="310" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E310" t="s">
@@ -6271,12 +6271,12 @@
       <c r="J310" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L310" s="13"/>
-      <c r="M310" s="11" t="s">
+      <c r="L310" s="11"/>
+      <c r="M310" t="s">
+        <v>464</v>
+      </c>
+      <c r="N310" t="s">
         <v>465</v>
-      </c>
-      <c r="N310" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="311" spans="4:17" x14ac:dyDescent="0.25">
@@ -6292,21 +6292,21 @@
       <c r="J311" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L311" s="13"/>
-      <c r="M311" s="11" t="s">
-        <v>465</v>
+      <c r="L311" s="11"/>
+      <c r="M311" t="s">
+        <v>464</v>
       </c>
       <c r="N311" t="s">
+        <v>466</v>
+      </c>
+      <c r="O311" t="s">
         <v>467</v>
       </c>
-      <c r="O311" t="s">
+      <c r="P311" t="s">
         <v>468</v>
       </c>
-      <c r="P311" t="s">
+      <c r="Q311" t="s">
         <v>469</v>
-      </c>
-      <c r="Q311" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="312" spans="4:17" x14ac:dyDescent="0.25">
@@ -6322,14 +6322,14 @@
       <c r="J312" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L312" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="M312" s="11" t="s">
-        <v>465</v>
+      <c r="L312" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="M312" t="s">
+        <v>464</v>
       </c>
       <c r="N312" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="313" spans="4:17" x14ac:dyDescent="0.25">
@@ -6345,14 +6345,14 @@
       <c r="J313" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L313" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="M313" s="11" t="s">
-        <v>465</v>
+      <c r="L313" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="M313" t="s">
+        <v>464</v>
       </c>
       <c r="N313" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="314" spans="4:17" x14ac:dyDescent="0.25">
@@ -6368,7 +6368,7 @@
       <c r="J314" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L314" s="13"/>
+      <c r="L314" s="11"/>
       <c r="M314" t="s">
         <v>339</v>
       </c>
@@ -6386,12 +6386,12 @@
       <c r="J315" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L315" s="13"/>
-      <c r="M315" s="11" t="s">
-        <v>465</v>
+      <c r="L315" s="11"/>
+      <c r="M315" t="s">
+        <v>464</v>
       </c>
       <c r="N315" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="316" spans="4:17" x14ac:dyDescent="0.25">
@@ -6407,15 +6407,15 @@
       <c r="J316" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L316" s="13"/>
-      <c r="M316" s="11" t="s">
-        <v>465</v>
+      <c r="L316" s="11"/>
+      <c r="M316" t="s">
+        <v>464</v>
       </c>
       <c r="N316" t="s">
+        <v>466</v>
+      </c>
+      <c r="O316" t="s">
         <v>467</v>
-      </c>
-      <c r="O316" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="317" spans="4:17" x14ac:dyDescent="0.25">
@@ -6431,9 +6431,12 @@
       <c r="J317" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L317" s="13"/>
-      <c r="M317" t="s">
-        <v>400</v>
+      <c r="L317" s="11"/>
+      <c r="M317" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="N317" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="318" spans="4:17" x14ac:dyDescent="0.25">
@@ -6449,13 +6452,13 @@
       <c r="J318" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L318" s="13"/>
+      <c r="L318" s="11"/>
     </row>
     <row r="319" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E319" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="L319" s="13"/>
+      <c r="L319" s="11"/>
     </row>
     <row r="320" spans="4:17" x14ac:dyDescent="0.25">
       <c r="F320" t="s">
@@ -6470,31 +6473,31 @@
       <c r="J320" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L320" s="13"/>
-      <c r="M320" s="11" t="s">
-        <v>465</v>
+      <c r="L320" s="11"/>
+      <c r="M320" t="s">
+        <v>464</v>
       </c>
       <c r="N320" t="s">
+        <v>466</v>
+      </c>
+      <c r="O320" t="s">
         <v>467</v>
       </c>
-      <c r="O320" t="s">
-        <v>468</v>
-      </c>
       <c r="P320" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="321" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E321" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="L321" s="13"/>
+      <c r="L321" s="11"/>
     </row>
     <row r="322" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E322" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="L322" s="13"/>
+      <c r="L322" s="11"/>
     </row>
     <row r="323" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F323" t="s">
@@ -6509,25 +6512,25 @@
       <c r="J323" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L323" s="13"/>
-      <c r="M323" s="11" t="s">
-        <v>465</v>
+      <c r="L323" s="11"/>
+      <c r="M323" t="s">
+        <v>464</v>
       </c>
       <c r="N323" t="s">
+        <v>466</v>
+      </c>
+      <c r="O323" t="s">
         <v>467</v>
       </c>
-      <c r="O323" t="s">
-        <v>468</v>
-      </c>
       <c r="P323" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="324" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E324" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="L324" s="13"/>
+      <c r="L324" s="11"/>
     </row>
     <row r="325" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E325" s="1" t="s">
@@ -6539,7 +6542,7 @@
       <c r="J325" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L325" s="13"/>
+      <c r="L325" s="11"/>
     </row>
     <row r="326" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F326" t="s">
@@ -6554,15 +6557,15 @@
       <c r="J326" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L326" s="13"/>
-      <c r="M326" s="11" t="s">
-        <v>465</v>
+      <c r="L326" s="11"/>
+      <c r="M326" t="s">
+        <v>464</v>
       </c>
       <c r="N326" t="s">
+        <v>476</v>
+      </c>
+      <c r="O326" t="s">
         <v>477</v>
-      </c>
-      <c r="O326" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="327" spans="5:16" x14ac:dyDescent="0.25">
@@ -6578,15 +6581,15 @@
       <c r="J327" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L327" s="13"/>
-      <c r="M327" s="11" t="s">
-        <v>465</v>
+      <c r="L327" s="11"/>
+      <c r="M327" t="s">
+        <v>464</v>
       </c>
       <c r="N327" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O327" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="328" spans="5:16" x14ac:dyDescent="0.25">
@@ -6602,15 +6605,18 @@
       <c r="J328" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L328" s="13"/>
-      <c r="M328" s="11" t="s">
-        <v>465</v>
+      <c r="L328" s="11"/>
+      <c r="M328" t="s">
+        <v>464</v>
       </c>
       <c r="N328" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O328" t="s">
-        <v>480</v>
+        <v>492</v>
+      </c>
+      <c r="P328" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="329" spans="5:16" x14ac:dyDescent="0.25">
@@ -6626,23 +6632,22 @@
       <c r="J329" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L329" s="13"/>
-      <c r="M329" s="11" t="s">
-        <v>465</v>
+      <c r="L329" s="11"/>
+      <c r="M329" t="s">
+        <v>464</v>
       </c>
       <c r="N329" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O329" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="330" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F330" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="L330" s="13"/>
-      <c r="M330" s="11"/>
+      <c r="L330" s="11"/>
     </row>
     <row r="331" spans="5:16" x14ac:dyDescent="0.25">
       <c r="G331" t="s">
@@ -6657,28 +6662,28 @@
       <c r="J331" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L331" s="13"/>
-      <c r="M331" s="11" t="s">
-        <v>465</v>
+      <c r="L331" s="11"/>
+      <c r="M331" t="s">
+        <v>464</v>
       </c>
       <c r="N331" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O331" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="332" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F332" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="L332" s="13"/>
+      <c r="L332" s="11"/>
     </row>
     <row r="333" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E333" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="L333" s="13"/>
+      <c r="L333" s="11"/>
     </row>
     <row r="334" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E334" s="1" t="s">
@@ -6690,7 +6695,7 @@
       <c r="J334" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L334" s="13"/>
+      <c r="L334" s="11"/>
     </row>
     <row r="335" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F335" t="s">
@@ -6705,15 +6710,15 @@
       <c r="J335" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L335" s="13"/>
-      <c r="M335" s="11" t="s">
-        <v>465</v>
+      <c r="L335" s="11"/>
+      <c r="M335" t="s">
+        <v>464</v>
       </c>
       <c r="N335" t="s">
+        <v>466</v>
+      </c>
+      <c r="O335" t="s">
         <v>467</v>
-      </c>
-      <c r="O335" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="336" spans="5:16" x14ac:dyDescent="0.25">
@@ -6729,23 +6734,22 @@
       <c r="J336" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L336" s="13"/>
-      <c r="M336" s="11" t="s">
-        <v>465</v>
+      <c r="L336" s="11"/>
+      <c r="M336" t="s">
+        <v>464</v>
       </c>
       <c r="N336" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O336" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="337" spans="5:17" x14ac:dyDescent="0.25">
       <c r="F337" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="L337" s="13"/>
-      <c r="M337" s="11"/>
+      <c r="L337" s="11"/>
     </row>
     <row r="338" spans="5:17" x14ac:dyDescent="0.25">
       <c r="F338" s="1"/>
@@ -6761,21 +6765,21 @@
       <c r="J338" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L338" s="13"/>
-      <c r="M338" s="11" t="s">
-        <v>465</v>
+      <c r="L338" s="11"/>
+      <c r="M338" t="s">
+        <v>464</v>
       </c>
       <c r="N338" t="s">
+        <v>466</v>
+      </c>
+      <c r="O338" t="s">
         <v>467</v>
       </c>
-      <c r="O338" t="s">
-        <v>468</v>
-      </c>
       <c r="P338" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q338" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="339" spans="5:17" x14ac:dyDescent="0.25">
@@ -6792,21 +6796,21 @@
       <c r="J339" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L339" s="13"/>
-      <c r="M339" s="11" t="s">
-        <v>465</v>
+      <c r="L339" s="11"/>
+      <c r="M339" t="s">
+        <v>464</v>
       </c>
       <c r="N339" t="s">
+        <v>466</v>
+      </c>
+      <c r="O339" t="s">
         <v>467</v>
       </c>
-      <c r="O339" t="s">
-        <v>468</v>
-      </c>
       <c r="P339" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q339" t="s">
         <v>484</v>
-      </c>
-      <c r="Q339" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="340" spans="5:17" x14ac:dyDescent="0.25">
@@ -6823,40 +6827,40 @@
       <c r="J340" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L340" s="13"/>
-      <c r="M340" s="11" t="s">
-        <v>465</v>
+      <c r="L340" s="11"/>
+      <c r="M340" t="s">
+        <v>464</v>
       </c>
       <c r="N340" t="s">
+        <v>466</v>
+      </c>
+      <c r="O340" t="s">
         <v>467</v>
       </c>
-      <c r="O340" t="s">
-        <v>468</v>
-      </c>
       <c r="P340" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q340" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="341" spans="5:17" x14ac:dyDescent="0.25">
       <c r="F341" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="L341" s="13"/>
+      <c r="L341" s="11"/>
     </row>
     <row r="342" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E342" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="L342" s="13"/>
+      <c r="L342" s="11"/>
     </row>
     <row r="343" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E343" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="L343" s="13"/>
+      <c r="L343" s="11"/>
     </row>
     <row r="344" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E344" s="1"/>
@@ -6872,12 +6876,12 @@
       <c r="J344" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L344" s="13"/>
-      <c r="M344" s="11" t="s">
-        <v>465</v>
+      <c r="L344" s="11"/>
+      <c r="M344" t="s">
+        <v>464</v>
       </c>
       <c r="N344" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="345" spans="5:17" x14ac:dyDescent="0.25">
@@ -6894,21 +6898,21 @@
       <c r="J345" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L345" s="13"/>
-      <c r="M345" s="11" t="s">
-        <v>465</v>
+      <c r="L345" s="11"/>
+      <c r="M345" t="s">
+        <v>464</v>
       </c>
       <c r="N345" t="s">
+        <v>466</v>
+      </c>
+      <c r="O345" t="s">
         <v>467</v>
       </c>
-      <c r="O345" t="s">
+      <c r="P345" t="s">
         <v>468</v>
       </c>
-      <c r="P345" t="s">
-        <v>469</v>
-      </c>
       <c r="Q345" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="346" spans="5:17" x14ac:dyDescent="0.25">
@@ -6925,12 +6929,12 @@
       <c r="J346" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L346" s="13"/>
-      <c r="M346" s="11" t="s">
-        <v>465</v>
+      <c r="L346" s="11"/>
+      <c r="M346" t="s">
+        <v>464</v>
       </c>
       <c r="N346" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="347" spans="5:17" x14ac:dyDescent="0.25">
@@ -6941,12 +6945,12 @@
       <c r="H347" t="s">
         <v>385</v>
       </c>
-      <c r="L347" s="13"/>
-      <c r="M347" s="11" t="s">
-        <v>465</v>
+      <c r="L347" s="11"/>
+      <c r="M347" t="s">
+        <v>464</v>
       </c>
       <c r="N347" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="348" spans="5:17" x14ac:dyDescent="0.25">
@@ -6958,16 +6962,15 @@
         <v>387</v>
       </c>
       <c r="K348" s="9"/>
-      <c r="L348" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="M348" s="10"/>
+      <c r="L348" s="11" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="349" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E349" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="L349" s="13"/>
+      <c r="L349" s="11"/>
     </row>
     <row r="350" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E350" s="1" t="s">
@@ -6979,7 +6982,7 @@
       <c r="J350" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L350" s="13"/>
+      <c r="L350" s="11"/>
     </row>
     <row r="351" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E351" s="1"/>
@@ -6995,12 +6998,12 @@
       <c r="J351" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L351" s="13"/>
-      <c r="M351" s="11" t="s">
+      <c r="L351" s="11"/>
+      <c r="M351" t="s">
+        <v>459</v>
+      </c>
+      <c r="N351" t="s">
         <v>460</v>
-      </c>
-      <c r="N351" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="352" spans="5:17" x14ac:dyDescent="0.25">
@@ -7017,12 +7020,12 @@
       <c r="J352" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L352" s="13"/>
-      <c r="M352" s="11" t="s">
-        <v>460</v>
+      <c r="L352" s="11"/>
+      <c r="M352" t="s">
+        <v>459</v>
       </c>
       <c r="N352" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.25">
@@ -7039,12 +7042,12 @@
       <c r="J353" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L353" s="13"/>
-      <c r="M353" s="11" t="s">
-        <v>460</v>
+      <c r="L353" s="11"/>
+      <c r="M353" t="s">
+        <v>459</v>
       </c>
       <c r="N353" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.25">
@@ -7061,25 +7064,25 @@
       <c r="J354" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L354" s="13"/>
-      <c r="M354" s="11" t="s">
-        <v>460</v>
+      <c r="L354" s="11"/>
+      <c r="M354" t="s">
+        <v>459</v>
       </c>
       <c r="N354" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E355" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="L355" s="13"/>
+      <c r="L355" s="11"/>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E356" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="L356" s="13"/>
+      <c r="L356" s="11"/>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E357" s="1"/>
@@ -7095,12 +7098,12 @@
       <c r="J357" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L357" s="16"/>
-      <c r="M357" s="11" t="s">
-        <v>465</v>
+      <c r="L357" s="14"/>
+      <c r="M357" t="s">
+        <v>464</v>
       </c>
       <c r="N357" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.25">
@@ -7108,32 +7111,32 @@
         <v>392</v>
       </c>
       <c r="F358" s="1"/>
-      <c r="L358" s="13"/>
+      <c r="L358" s="11"/>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D359" s="1" t="s">
         <v>393</v>
       </c>
       <c r="E359" s="1"/>
-      <c r="L359" s="13"/>
+      <c r="L359" s="11"/>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C360" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="L360" s="13"/>
+      <c r="L360" s="11"/>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B361" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="L361" s="13"/>
+      <c r="L361" s="11"/>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="L362" s="13"/>
+      <c r="L362" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M2" xr:uid="{AF1D5207-AAE4-40A7-897B-0A14B8C76F5C}">
@@ -7159,6 +7162,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Aptos"&amp;10&amp;K000000 Unrestricted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -7169,6 +7175,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003BD9F489D8A3CB4CB4A9ED284A3FCA6E" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9f6f1c074eaefb361d518fe95996ab9d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0298a7ca-5e45-41ce-82dd-77fd4fe196fc" xmlns:ns3="cd402ee1-b2ab-4875-af71-19f72223aa0b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9118947706f37de36bda36ecf87158af" ns2:_="" ns3:_="">
     <xsd:import namespace="0298a7ca-5e45-41ce-82dd-77fd4fe196fc"/>
@@ -7391,15 +7406,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B130662-8EB9-4540-BC8F-0D1232647753}">
   <ds:schemaRefs>
@@ -7418,6 +7424,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F75F45A3-32E6-4084-931F-E62125045A6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AB3A138-2C3A-40ED-BC06-2CB1DD202F66}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7436,10 +7450,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F75F45A3-32E6-4084-931F-E62125045A6C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{44ae014c-8170-484b-8a8e-3a6b842e2604}" enabled="1" method="Standard" siteId="{ad221784-72a8-4263-ac86-0ccc6b152cd8}" removed="0"/>
+</clbl:labelList>
 </file>